--- a/ArcTest.xlsx
+++ b/ArcTest.xlsx
@@ -3,45 +3,44 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Group10\git\KatalonStudio\ArcWithKatalonStudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="5790" firstSheet="20" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="5790" firstSheet="21" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="USBuildingProject" sheetId="1" r:id="rId1"/>
     <sheet name="BTeam" sheetId="10" r:id="rId2"/>
     <sheet name="USCityProject" sheetId="5" r:id="rId3"/>
     <sheet name="USCommunityProject" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="20" r:id="rId5"/>
-    <sheet name="Payment" sheetId="2" r:id="rId6"/>
-    <sheet name="Login" sheetId="3" r:id="rId7"/>
-    <sheet name="ChinaBuildingProejct" sheetId="18" r:id="rId8"/>
-    <sheet name="CDataInput" sheetId="12" r:id="rId9"/>
-    <sheet name="Add Meter" sheetId="4" r:id="rId10"/>
-    <sheet name="BEnergy" sheetId="7" r:id="rId11"/>
-    <sheet name="BWater" sheetId="8" r:id="rId12"/>
-    <sheet name="BWaste" sheetId="9" r:id="rId13"/>
-    <sheet name="MyPortfolios" sheetId="14" r:id="rId14"/>
-    <sheet name="ChinaCommunityProject" sheetId="19" r:id="rId15"/>
-    <sheet name="Survey" sheetId="15" r:id="rId16"/>
-    <sheet name="PortfolioProject" sheetId="16" r:id="rId17"/>
-    <sheet name="ChinaCityProject" sheetId="21" r:id="rId18"/>
-    <sheet name="CheckPaymentProject" sheetId="28" r:id="rId19"/>
-    <sheet name="NewPortfolio" sheetId="17" r:id="rId20"/>
-    <sheet name="CanadaBuildingProject" sheetId="22" r:id="rId21"/>
-    <sheet name="CanadaCityProject" sheetId="23" r:id="rId22"/>
-    <sheet name="CanadaCommunityProject" sheetId="24" r:id="rId23"/>
-    <sheet name="BuildingIndiaProject" sheetId="25" r:id="rId24"/>
-    <sheet name="CityIndiaProject" sheetId="26" r:id="rId25"/>
-    <sheet name="CommunityIndiaProject" sheetId="27" r:id="rId26"/>
+    <sheet name="Payment" sheetId="2" r:id="rId5"/>
+    <sheet name="Login" sheetId="3" r:id="rId6"/>
+    <sheet name="ChinaBuildingProejct" sheetId="18" r:id="rId7"/>
+    <sheet name="CDataInput" sheetId="12" r:id="rId8"/>
+    <sheet name="Add Meter" sheetId="4" r:id="rId9"/>
+    <sheet name="BEnergy" sheetId="7" r:id="rId10"/>
+    <sheet name="BWater" sheetId="8" r:id="rId11"/>
+    <sheet name="BWaste" sheetId="9" r:id="rId12"/>
+    <sheet name="MyPortfolios" sheetId="14" r:id="rId13"/>
+    <sheet name="ChinaCommunityProject" sheetId="19" r:id="rId14"/>
+    <sheet name="Survey" sheetId="15" r:id="rId15"/>
+    <sheet name="PortfolioProject" sheetId="16" r:id="rId16"/>
+    <sheet name="ChinaCityProject" sheetId="21" r:id="rId17"/>
+    <sheet name="CheckPaymentProject" sheetId="28" r:id="rId18"/>
+    <sheet name="NewPortfolio" sheetId="17" r:id="rId19"/>
+    <sheet name="CanadaBuildingProject" sheetId="22" r:id="rId20"/>
+    <sheet name="CanadaCityProject" sheetId="23" r:id="rId21"/>
+    <sheet name="CanadaCommunityProject" sheetId="24" r:id="rId22"/>
+    <sheet name="BuildingIndiaProject" sheetId="25" r:id="rId23"/>
+    <sheet name="CityIndiaProject" sheetId="26" r:id="rId24"/>
+    <sheet name="CommunityIndiaProject" sheetId="27" r:id="rId25"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="498">
   <si>
     <t>Project Name</t>
   </si>
@@ -1472,30 +1471,15 @@
     <t>Promocode</t>
   </si>
   <si>
-    <t>B &amp; B Associates, Inc.</t>
-  </si>
-  <si>
     <t>abhishekkumar@groupten.com</t>
   </si>
   <si>
-    <t>1000141690</t>
-  </si>
-  <si>
     <t>1477178308121400</t>
   </si>
   <si>
     <t>₹ 0.00</t>
   </si>
   <si>
-    <t>R &amp; D Architects</t>
-  </si>
-  <si>
-    <t>1000141694</t>
-  </si>
-  <si>
-    <t>1000141692</t>
-  </si>
-  <si>
     <t>INDCom</t>
   </si>
   <si>
@@ -1538,7 +1522,49 @@
     <t>Sector 49</t>
   </si>
   <si>
-    <t>INDBuildingNone 144321None 144940</t>
+    <t>20037</t>
+  </si>
+  <si>
+    <t>20038</t>
+  </si>
+  <si>
+    <t>20039</t>
+  </si>
+  <si>
+    <t>1000151455</t>
+  </si>
+  <si>
+    <t>PaymentByCCUS</t>
+  </si>
+  <si>
+    <t>PaymentTypeByCountry</t>
+  </si>
+  <si>
+    <t>PaymentByCheckIND</t>
+  </si>
+  <si>
+    <t>1000073597</t>
+  </si>
+  <si>
+    <t>1000073598</t>
+  </si>
+  <si>
+    <t>1000073599</t>
+  </si>
+  <si>
+    <t>1000073603</t>
+  </si>
+  <si>
+    <t>1000073604</t>
+  </si>
+  <si>
+    <t>1000073605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDBuilding </t>
+  </si>
+  <si>
+    <t>INDBuilding None 12:04:50</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1574,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1727,6 +1753,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1797,7 +1830,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1930,7 +1963,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1951,6 +1983,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="26" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="26" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2246,39 +2288,39 @@
   <dimension ref="A1:AJ10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A1:AJ16"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.140625" style="2" collapsed="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.140625" style="2" collapsed="1"/>
-    <col min="15" max="15" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="19" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="22.85546875" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="16" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="9" max="9" style="2" width="9.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="14" max="14" style="2" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="16" max="17" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="15.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -2735,74 +2777,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2811,10 +2785,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2978,7 +2952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -2988,12 +2962,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -3139,7 +3113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
@@ -3149,16 +3123,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3358,7 +3332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC3"/>
   <sheetViews>
@@ -3368,7 +3342,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -3636,32 +3610,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection sqref="A1:Z4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.28515625" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -3899,7 +3873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -3909,16 +3883,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.7109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.28515625" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.7109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="5" width="13.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="20.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="16.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="17.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="20.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="5" width="20.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="5" width="16.5703125" collapsed="true"/>
+    <col min="10" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4075,7 +4049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD1048576"/>
   <sheetViews>
@@ -4085,32 +4059,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="37.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.85546875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.42578125" style="5" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="12" style="2" customWidth="1" collapsed="1"/>
-    <col min="20" max="21" width="12" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="12" style="2" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="9.140625" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="15.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="12" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="18" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="42.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="37.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="5" width="10.42578125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="20" max="21" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="2" width="15.7109375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -5818,7 +5792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y8"/>
   <sheetViews>
@@ -5828,24 +5802,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" style="97" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" style="97" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.5703125" style="97" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.5703125" style="97" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.28515625" style="97" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.140625" style="97" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" style="97" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.140625" style="97" collapsed="1"/>
-    <col min="9" max="9" width="18.42578125" style="97" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" style="97" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="14.42578125" style="97" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="9.140625" style="97" collapsed="1"/>
-    <col min="15" max="15" width="13.140625" style="97" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="9.140625" style="97" collapsed="1"/>
-    <col min="18" max="18" width="9.85546875" style="97" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="9.140625" style="97" collapsed="1"/>
-    <col min="20" max="20" width="36.5703125" style="97" customWidth="1" collapsed="1"/>
-    <col min="21" max="16384" width="9.140625" style="97" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="96" width="23.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="96" width="19.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="96" width="19.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="96" width="24.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="96" width="20.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="96" width="29.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="96" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" style="96" width="9.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="96" width="18.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="96" width="15.140625" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" style="96" width="14.42578125" collapsed="true"/>
+    <col min="13" max="14" style="96" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="96" width="13.140625" collapsed="true"/>
+    <col min="16" max="17" style="96" width="9.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="96" width="9.85546875" collapsed="true"/>
+    <col min="19" max="19" style="96" width="9.140625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="96" width="36.5703125" collapsed="true"/>
+    <col min="21" max="16384" style="96" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
@@ -5907,9 +5881,9 @@
       <c r="T1" s="56" t="s">
         <v>272</v>
       </c>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
@@ -6092,7 +6066,7 @@
       <c r="A6" s="57"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D8" s="98"/>
+      <c r="D8" s="97"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6105,88 +6079,88 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="72" customWidth="1"/>
-    <col min="2" max="2" width="12" style="72" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="72" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="72" customWidth="1"/>
-    <col min="5" max="5" width="21" style="72" customWidth="1"/>
-    <col min="6" max="10" width="9.140625" style="72"/>
-    <col min="11" max="11" width="13.85546875" style="72" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="72" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="72" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="72"/>
+    <col min="1" max="1" customWidth="true" style="72" width="20.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="72" width="12.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="72" width="18.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="72" width="20.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="72" width="21.0" collapsed="true"/>
+    <col min="6" max="10" style="72" width="9.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="72" width="13.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="72" width="19.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="72" width="9.140625" collapsed="true"/>
+    <col min="14" max="16384" style="72" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="98" t="s">
+        <v>470</v>
+      </c>
+      <c r="B1" s="98" t="s">
+        <v>471</v>
+      </c>
+      <c r="C1" s="98" t="s">
+        <v>472</v>
+      </c>
+      <c r="D1" s="98" t="s">
+        <v>473</v>
+      </c>
+      <c r="E1" s="98" t="s">
+        <v>474</v>
+      </c>
+      <c r="F1" s="98" t="s">
         <v>475</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="G1" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="98" t="s">
         <v>476</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="L1" s="98" t="s">
         <v>477</v>
       </c>
-      <c r="D1" s="99" t="s">
-        <v>478</v>
-      </c>
-      <c r="E1" s="99" t="s">
-        <v>479</v>
-      </c>
-      <c r="F1" s="99" t="s">
-        <v>480</v>
-      </c>
-      <c r="G1" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="99" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="99" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="99" t="s">
-        <v>481</v>
-      </c>
-      <c r="L1" s="99" t="s">
-        <v>482</v>
-      </c>
-      <c r="M1" s="99" t="s">
+      <c r="M1" s="98" t="s">
         <v>373</v>
       </c>
-      <c r="N1" s="99"/>
+      <c r="N1" s="98"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B2" s="72" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C2" s="72" t="s">
-        <v>485</v>
-      </c>
-      <c r="D2" s="100" t="s">
-        <v>467</v>
+        <v>480</v>
+      </c>
+      <c r="D2" s="99" t="s">
+        <v>466</v>
       </c>
       <c r="E2" s="72" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F2" s="72" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="G2" s="72" t="s">
         <v>450</v>
@@ -6201,33 +6175,33 @@
         <v>452</v>
       </c>
       <c r="K2" s="74" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L2" s="74" t="s">
         <v>381</v>
       </c>
-      <c r="M2" s="100" t="s">
-        <v>467</v>
+      <c r="M2" s="99" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B3" s="72" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>485</v>
-      </c>
-      <c r="D3" s="100" t="s">
-        <v>467</v>
+        <v>480</v>
+      </c>
+      <c r="D3" s="99" t="s">
+        <v>466</v>
       </c>
       <c r="E3" s="72" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F3" s="72" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="G3" s="72" t="s">
         <v>450</v>
@@ -6242,33 +6216,33 @@
         <v>452</v>
       </c>
       <c r="K3" s="74" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L3" s="74" t="s">
         <v>381</v>
       </c>
-      <c r="M3" s="100" t="s">
-        <v>467</v>
+      <c r="M3" s="99" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="72" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>485</v>
-      </c>
-      <c r="D4" s="100" t="s">
-        <v>467</v>
+        <v>480</v>
+      </c>
+      <c r="D4" s="99" t="s">
+        <v>466</v>
       </c>
       <c r="E4" s="72" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F4" s="72" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="G4" s="72" t="s">
         <v>450</v>
@@ -6283,33 +6257,33 @@
         <v>452</v>
       </c>
       <c r="K4" s="74" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L4" s="74" t="s">
         <v>381</v>
       </c>
-      <c r="M4" s="100" t="s">
-        <v>467</v>
+      <c r="M4" s="99" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="72" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B5" s="72" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>485</v>
-      </c>
-      <c r="D5" s="100" t="s">
-        <v>467</v>
+        <v>480</v>
+      </c>
+      <c r="D5" s="99" t="s">
+        <v>466</v>
       </c>
       <c r="E5" s="72" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F5" s="72" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="G5" s="72" t="s">
         <v>450</v>
@@ -6324,33 +6298,33 @@
         <v>452</v>
       </c>
       <c r="K5" s="74" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>381</v>
       </c>
-      <c r="M5" s="100" t="s">
-        <v>467</v>
+      <c r="M5" s="99" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="72" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>485</v>
-      </c>
-      <c r="D6" s="100" t="s">
-        <v>467</v>
+        <v>480</v>
+      </c>
+      <c r="D6" s="99" t="s">
+        <v>466</v>
       </c>
       <c r="E6" s="72" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F6" s="72" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="G6" s="72" t="s">
         <v>450</v>
@@ -6365,13 +6339,13 @@
         <v>452</v>
       </c>
       <c r="K6" s="74" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L6" s="74" t="s">
         <v>381</v>
       </c>
-      <c r="M6" s="100" t="s">
-        <v>467</v>
+      <c r="M6" s="99" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -6392,6 +6366,121 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="23.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>370</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>371</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>372</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>373</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>374</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>375</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G3" t="s">
+        <v>383</v>
+      </c>
+      <c r="H3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId3"/>
+    <hyperlink ref="F3" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
@@ -6402,7 +6491,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -6449,121 +6538,6 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>370</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>371</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>372</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>373</v>
-      </c>
-      <c r="G1" s="46" t="s">
-        <v>374</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>375</v>
-      </c>
-      <c r="I1" s="46" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="E2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G2" t="s">
-        <v>378</v>
-      </c>
-      <c r="H2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>397</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="F3" t="s">
-        <v>249</v>
-      </c>
-      <c r="G3" t="s">
-        <v>383</v>
-      </c>
-      <c r="H3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="F2" r:id="rId3"/>
-    <hyperlink ref="F3" r:id="rId4"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ10"/>
   <sheetViews>
     <sheetView topLeftCell="Y1" workbookViewId="0">
@@ -6572,23 +6546,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="69" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="69" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="69" customWidth="1"/>
-    <col min="4" max="4" width="18" style="69" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="69" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="69" customWidth="1"/>
-    <col min="7" max="7" width="21" style="69" customWidth="1"/>
-    <col min="8" max="8" width="18" style="69" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="69"/>
-    <col min="10" max="10" width="31.7109375" style="69" customWidth="1"/>
-    <col min="11" max="11" width="12" style="69" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" style="69" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="69"/>
-    <col min="14" max="14" width="12.85546875" style="69" customWidth="1"/>
-    <col min="15" max="28" width="9.140625" style="69"/>
-    <col min="29" max="29" width="12.7109375" style="69" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="69"/>
+    <col min="1" max="1" customWidth="true" style="69" width="17.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="69" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="69" width="17.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="69" width="18.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="69" width="21.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="69" width="24.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="69" width="21.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="69" width="18.0" collapsed="true"/>
+    <col min="9" max="9" style="69" width="9.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="69" width="31.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="69" width="12.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="69" width="10.85546875" collapsed="true"/>
+    <col min="13" max="13" style="69" width="9.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="69" width="12.85546875" collapsed="true"/>
+    <col min="15" max="28" style="69" width="9.140625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="69" width="12.7109375" collapsed="true"/>
+    <col min="30" max="16384" style="69" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -7042,7 +7016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y8"/>
   <sheetViews>
@@ -7052,24 +7026,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" style="50" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" style="50" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.5703125" style="50" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.5703125" style="50" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.28515625" style="50" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.140625" style="50" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" style="50" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.140625" style="50" collapsed="1"/>
-    <col min="9" max="9" width="18.42578125" style="50" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" style="50" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="14.42578125" style="50" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="9.140625" style="50" collapsed="1"/>
-    <col min="15" max="15" width="13.140625" style="50" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="9.140625" style="50" collapsed="1"/>
-    <col min="18" max="18" width="9.85546875" style="50" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="9.140625" style="50" collapsed="1"/>
-    <col min="20" max="20" width="36.5703125" style="50" customWidth="1" collapsed="1"/>
-    <col min="21" max="16384" width="9.140625" style="50" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="50" width="23.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="50" width="19.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="50" width="19.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="50" width="24.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="50" width="20.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="50" width="29.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="50" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" style="50" width="9.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="50" width="18.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="50" width="15.140625" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" style="50" width="14.42578125" collapsed="true"/>
+    <col min="13" max="14" style="50" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="50" width="13.140625" collapsed="true"/>
+    <col min="16" max="17" style="50" width="9.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="50" width="9.85546875" collapsed="true"/>
+    <col min="19" max="19" style="50" width="9.140625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="50" width="36.5703125" collapsed="true"/>
+    <col min="21" max="16384" style="50" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
@@ -7317,6 +7291,259 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D8" s="52"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="68" t="s">
+        <v>414</v>
+      </c>
+      <c r="P1" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q1" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="R1" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="47"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
+        <v>420</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>411</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" s="69" t="s">
+        <v>440</v>
+      </c>
+      <c r="H2" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="77" t="s">
+        <v>443</v>
+      </c>
+      <c r="K2" s="77" t="s">
+        <v>444</v>
+      </c>
+      <c r="L2" s="69" t="s">
+        <v>440</v>
+      </c>
+      <c r="M2" s="69" t="s">
+        <v>441</v>
+      </c>
+      <c r="N2" s="77" t="s">
+        <v>435</v>
+      </c>
+      <c r="O2" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="P2" s="71" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q2" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="R2" s="71" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="69" t="s">
+        <v>420</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>411</v>
+      </c>
+      <c r="F3" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G3" s="69" t="s">
+        <v>440</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>446</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="77" t="s">
+        <v>443</v>
+      </c>
+      <c r="K3" s="77" t="s">
+        <v>444</v>
+      </c>
+      <c r="L3" s="69" t="s">
+        <v>440</v>
+      </c>
+      <c r="M3" s="69" t="s">
+        <v>441</v>
+      </c>
+      <c r="N3" s="77" t="s">
+        <v>436</v>
+      </c>
+      <c r="O3" s="69"/>
+      <c r="P3" s="71" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q3" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="R3" s="71" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="69" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>411</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>440</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="I4" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="77" t="s">
+        <v>443</v>
+      </c>
+      <c r="K4" s="77" t="s">
+        <v>444</v>
+      </c>
+      <c r="L4" s="69" t="s">
+        <v>440</v>
+      </c>
+      <c r="M4" s="69" t="s">
+        <v>441</v>
+      </c>
+      <c r="N4" s="77" t="s">
+        <v>437</v>
+      </c>
+      <c r="O4" s="69"/>
+      <c r="P4" s="71" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q4" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="R4" s="71" t="s">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7330,283 +7557,30 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="68" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" s="68" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="H1" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="68" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="68" t="s">
-        <v>414</v>
-      </c>
-      <c r="P1" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q1" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="R1" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="47"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
-        <v>420</v>
-      </c>
-      <c r="B2" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="61" t="s">
-        <v>411</v>
-      </c>
-      <c r="F2" s="70" t="s">
-        <v>249</v>
-      </c>
-      <c r="G2" s="69" t="s">
-        <v>440</v>
-      </c>
-      <c r="H2" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="77" t="s">
-        <v>443</v>
-      </c>
-      <c r="K2" s="77" t="s">
-        <v>444</v>
-      </c>
-      <c r="L2" s="69" t="s">
-        <v>440</v>
-      </c>
-      <c r="M2" s="69" t="s">
-        <v>441</v>
-      </c>
-      <c r="N2" s="77" t="s">
-        <v>435</v>
-      </c>
-      <c r="O2" s="69" t="s">
-        <v>417</v>
-      </c>
-      <c r="P2" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q2" s="71" t="s">
-        <v>133</v>
-      </c>
-      <c r="R2" s="71" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
-        <v>420</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="61" t="s">
-        <v>411</v>
-      </c>
-      <c r="F3" s="70" t="s">
-        <v>249</v>
-      </c>
-      <c r="G3" s="69" t="s">
-        <v>440</v>
-      </c>
-      <c r="H3" s="59" t="s">
-        <v>446</v>
-      </c>
-      <c r="I3" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" s="77" t="s">
-        <v>443</v>
-      </c>
-      <c r="K3" s="77" t="s">
-        <v>444</v>
-      </c>
-      <c r="L3" s="69" t="s">
-        <v>440</v>
-      </c>
-      <c r="M3" s="69" t="s">
-        <v>441</v>
-      </c>
-      <c r="N3" s="77" t="s">
-        <v>436</v>
-      </c>
-      <c r="O3" s="69"/>
-      <c r="P3" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q3" s="71" t="s">
-        <v>133</v>
-      </c>
-      <c r="R3" s="71" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>420</v>
-      </c>
-      <c r="B4" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="61" t="s">
-        <v>411</v>
-      </c>
-      <c r="F4" s="70" t="s">
-        <v>249</v>
-      </c>
-      <c r="G4" s="69" t="s">
-        <v>440</v>
-      </c>
-      <c r="H4" s="59" t="s">
-        <v>447</v>
-      </c>
-      <c r="I4" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="77" t="s">
-        <v>443</v>
-      </c>
-      <c r="K4" s="77" t="s">
-        <v>444</v>
-      </c>
-      <c r="L4" s="69" t="s">
-        <v>440</v>
-      </c>
-      <c r="M4" s="69" t="s">
-        <v>441</v>
-      </c>
-      <c r="N4" s="77" t="s">
-        <v>437</v>
-      </c>
-      <c r="O4" s="69"/>
-      <c r="P4" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q4" s="71" t="s">
-        <v>133</v>
-      </c>
-      <c r="R4" s="71" t="s">
-        <v>134</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.5703125" style="84" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="84" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="84" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="84" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="84" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="84" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" style="84" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="84" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="84"/>
-    <col min="10" max="10" width="23" style="84" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="84"/>
-    <col min="13" max="13" width="12.7109375" style="84" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="84"/>
-    <col min="15" max="15" width="14" style="84" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="84" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="84"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="84" width="14.53125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="84" width="15.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="84" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="84" width="13.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="84" width="20.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="84" width="25.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="84" width="23.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="84" width="14.5703125" collapsed="true"/>
+    <col min="9" max="9" style="84" width="9.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="84" width="23.0" collapsed="true"/>
+    <col min="11" max="12" style="84" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="84" width="12.7109375" collapsed="true"/>
+    <col min="14" max="14" style="84" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="84" width="14.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="84" width="15.140625" collapsed="true"/>
+    <col min="17" max="16384" style="84" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
@@ -7716,7 +7690,7 @@
       <c r="AJ1" s="83"/>
     </row>
     <row r="2" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="93" t="s">
         <v>448</v>
       </c>
       <c r="B2" s="61" t="s">
@@ -7740,10 +7714,10 @@
       <c r="H2" s="90" t="s">
         <v>449</v>
       </c>
-      <c r="I2" s="101" t="s">
+      <c r="I2" s="100" t="s">
         <v>454</v>
       </c>
-      <c r="J2" s="102" t="s">
+      <c r="J2" s="101" t="s">
         <v>453</v>
       </c>
       <c r="K2" s="90" t="s">
@@ -7755,10 +7729,10 @@
       <c r="M2" s="90" t="s">
         <v>451</v>
       </c>
-      <c r="N2" s="101" t="s">
+      <c r="N2" s="100" t="s">
         <v>452</v>
       </c>
-      <c r="O2" s="103"/>
+      <c r="O2" s="102"/>
       <c r="P2" s="61"/>
       <c r="Q2" s="61"/>
       <c r="R2" s="61"/>
@@ -7790,7 +7764,7 @@
       <c r="AJ2" s="69"/>
     </row>
     <row r="3" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="93" t="s">
         <v>448</v>
       </c>
       <c r="B3" s="61" t="s">
@@ -7817,7 +7791,7 @@
       <c r="I3" s="91" t="s">
         <v>442</v>
       </c>
-      <c r="J3" s="102" t="s">
+      <c r="J3" s="101" t="s">
         <v>455</v>
       </c>
       <c r="K3" s="90" t="s">
@@ -7829,7 +7803,7 @@
       <c r="M3" s="90" t="s">
         <v>451</v>
       </c>
-      <c r="N3" s="101" t="s">
+      <c r="N3" s="100" t="s">
         <v>459</v>
       </c>
       <c r="O3" s="61"/>
@@ -7878,7 +7852,7 @@
       <c r="AJ3" s="69"/>
     </row>
     <row r="4" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="93" t="s">
         <v>448</v>
       </c>
       <c r="B4" s="61" t="s">
@@ -7887,7 +7861,7 @@
       <c r="C4" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="104"/>
+      <c r="D4" s="103"/>
       <c r="E4" s="61" t="s">
         <v>410</v>
       </c>
@@ -7900,8 +7874,8 @@
       <c r="H4" s="90" t="s">
         <v>449</v>
       </c>
-      <c r="I4" s="104"/>
-      <c r="J4" s="102" t="s">
+      <c r="I4" s="103"/>
+      <c r="J4" s="101" t="s">
         <v>456</v>
       </c>
       <c r="K4" s="90" t="s">
@@ -7913,16 +7887,16 @@
       <c r="M4" s="90" t="s">
         <v>451</v>
       </c>
-      <c r="N4" s="101" t="s">
+      <c r="N4" s="100" t="s">
         <v>460</v>
       </c>
       <c r="O4" s="61"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="103"/>
+      <c r="T4" s="103"/>
+      <c r="U4" s="103"/>
       <c r="V4" s="91" t="s">
         <v>46</v>
       </c>
@@ -7932,9 +7906,9 @@
       <c r="X4" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="103"/>
+      <c r="AA4" s="103"/>
       <c r="AB4" s="91" t="s">
         <v>135</v>
       </c>
@@ -7952,7 +7926,7 @@
       <c r="AJ4" s="69"/>
     </row>
     <row r="5" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="93" t="s">
         <v>448</v>
       </c>
       <c r="B5" s="61" t="s">
@@ -7979,7 +7953,7 @@
       <c r="I5" s="91" t="s">
         <v>412</v>
       </c>
-      <c r="J5" s="102" t="s">
+      <c r="J5" s="101" t="s">
         <v>457</v>
       </c>
       <c r="K5" s="90" t="s">
@@ -7991,19 +7965,19 @@
       <c r="M5" s="90" t="s">
         <v>451</v>
       </c>
-      <c r="N5" s="101" t="s">
+      <c r="N5" s="100" t="s">
         <v>461</v>
       </c>
       <c r="O5" s="61"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="104"/>
-      <c r="S5" s="104"/>
-      <c r="T5" s="104"/>
-      <c r="U5" s="104"/>
-      <c r="V5" s="104"/>
-      <c r="W5" s="104"/>
-      <c r="X5" s="104"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
       <c r="Y5" s="91" t="s">
         <v>110</v>
       </c>
@@ -8026,8 +8000,8 @@
       <c r="AJ5" s="69"/>
     </row>
     <row r="6" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
-        <v>488</v>
+      <c r="A6" s="93" t="s">
+        <v>497</v>
       </c>
       <c r="B6" s="61" t="s">
         <v>13</v>
@@ -8053,7 +8027,7 @@
       <c r="I6" s="91" t="s">
         <v>412</v>
       </c>
-      <c r="J6" s="102" t="s">
+      <c r="J6" s="101" t="s">
         <v>458</v>
       </c>
       <c r="K6" s="90" t="s">
@@ -8065,21 +8039,21 @@
       <c r="M6" s="90" t="s">
         <v>451</v>
       </c>
-      <c r="N6" s="101" t="s">
+      <c r="N6" s="100" t="s">
         <v>462</v>
       </c>
       <c r="O6" s="61" t="s">
         <v>415</v>
       </c>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104"/>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="103"/>
+      <c r="T6" s="103"/>
+      <c r="U6" s="103"/>
+      <c r="V6" s="103"/>
+      <c r="W6" s="103"/>
+      <c r="X6" s="103"/>
       <c r="Y6" s="91" t="s">
         <v>110</v>
       </c>
@@ -8107,28 +8081,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="90"/>
-    <col min="3" max="3" width="19.85546875" style="90" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="90"/>
-    <col min="5" max="5" width="17.42578125" style="90" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="90" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="90" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="90"/>
-    <col min="10" max="10" width="23.5703125" style="90" customWidth="1"/>
-    <col min="11" max="14" width="9.140625" style="90"/>
-    <col min="15" max="15" width="14.42578125" style="90" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" style="90" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="90"/>
+    <col min="1" max="2" style="90" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="90" width="19.85546875" collapsed="true"/>
+    <col min="4" max="4" style="90" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="90" width="17.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="90" width="20.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="90" width="16.5703125" collapsed="true"/>
+    <col min="8" max="9" style="90" width="9.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="90" width="23.5703125" collapsed="true"/>
+    <col min="11" max="14" style="90" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="90" width="13.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="90" width="13.140625" collapsed="true"/>
+    <col min="17" max="16384" style="90" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
@@ -8250,7 +8224,7 @@
         <v>452</v>
       </c>
       <c r="O2" s="57" t="s">
-        <v>416</v>
+        <v>491</v>
       </c>
       <c r="P2" s="59" t="s">
         <v>196</v>
@@ -8312,19 +8286,21 @@
       <c r="J3" s="62" t="s">
         <v>455</v>
       </c>
-      <c r="K3" s="92" t="s">
-        <v>431</v>
-      </c>
-      <c r="L3" s="61" t="s">
-        <v>430</v>
-      </c>
-      <c r="M3" s="61" t="s">
-        <v>431</v>
-      </c>
-      <c r="N3" s="92">
-        <v>100004</v>
-      </c>
-      <c r="O3" s="57"/>
+      <c r="K3" s="72" t="s">
+        <v>450</v>
+      </c>
+      <c r="L3" s="72" t="s">
+        <v>449</v>
+      </c>
+      <c r="M3" s="72" t="s">
+        <v>451</v>
+      </c>
+      <c r="N3" s="74" t="s">
+        <v>459</v>
+      </c>
+      <c r="O3" s="57" t="s">
+        <v>490</v>
+      </c>
       <c r="P3" s="59" t="s">
         <v>196</v>
       </c>
@@ -8383,19 +8359,21 @@
       <c r="J4" s="62" t="s">
         <v>456</v>
       </c>
-      <c r="K4" s="92" t="s">
-        <v>431</v>
-      </c>
-      <c r="L4" s="61" t="s">
-        <v>430</v>
-      </c>
-      <c r="M4" s="61" t="s">
-        <v>431</v>
-      </c>
-      <c r="N4" s="92">
-        <v>100004</v>
-      </c>
-      <c r="O4" s="57"/>
+      <c r="K4" s="72" t="s">
+        <v>450</v>
+      </c>
+      <c r="L4" s="72" t="s">
+        <v>449</v>
+      </c>
+      <c r="M4" s="72" t="s">
+        <v>451</v>
+      </c>
+      <c r="N4" s="74" t="s">
+        <v>460</v>
+      </c>
+      <c r="O4" s="57" t="s">
+        <v>492</v>
+      </c>
       <c r="P4" s="59" t="s">
         <v>196</v>
       </c>
@@ -8433,30 +8411,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="93" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="93" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="93" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="93"/>
-    <col min="5" max="5" width="20" style="93" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" style="93" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="93" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="93"/>
-    <col min="10" max="10" width="27.42578125" style="93" customWidth="1"/>
-    <col min="11" max="14" width="9.140625" style="93"/>
-    <col min="15" max="15" width="14.42578125" style="93" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="93" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" style="93" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="93"/>
+    <col min="1" max="1" customWidth="true" style="92" width="21.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="92" width="17.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="92" width="15.85546875" collapsed="true"/>
+    <col min="4" max="4" style="92" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="92" width="20.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="92" width="25.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="92" width="18.42578125" collapsed="true"/>
+    <col min="8" max="9" style="92" width="9.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="92" width="27.42578125" collapsed="true"/>
+    <col min="11" max="14" style="92" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="92" width="13.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="92" width="14.5703125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="92" width="11.5703125" collapsed="true"/>
+    <col min="18" max="16384" style="92" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -8516,8 +8494,8 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
-        <v>474</v>
+      <c r="A2" s="93" t="s">
+        <v>469</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>71</v>
@@ -8529,10 +8507,10 @@
         <v>64</v>
       </c>
       <c r="E2" s="61" t="s">
+        <v>411</v>
+      </c>
+      <c r="F2" s="94" t="s">
         <v>466</v>
-      </c>
-      <c r="F2" s="95" t="s">
-        <v>467</v>
       </c>
       <c r="G2" s="61" t="s">
         <v>449</v>
@@ -8559,21 +8537,21 @@
         <v>452</v>
       </c>
       <c r="O2" s="61" t="s">
-        <v>468</v>
+        <v>494</v>
       </c>
       <c r="P2" s="91" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="Q2" s="91" t="s">
         <v>133</v>
       </c>
       <c r="R2" s="61" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
-        <v>474</v>
+      <c r="A3" s="93" t="s">
+        <v>469</v>
       </c>
       <c r="B3" s="61" t="s">
         <v>71</v>
@@ -8585,10 +8563,10 @@
         <v>58</v>
       </c>
       <c r="E3" s="61" t="s">
-        <v>471</v>
-      </c>
-      <c r="F3" s="95" t="s">
-        <v>467</v>
+        <v>411</v>
+      </c>
+      <c r="F3" s="94" t="s">
+        <v>466</v>
       </c>
       <c r="G3" s="61" t="s">
         <v>449</v>
@@ -8615,21 +8593,21 @@
         <v>452</v>
       </c>
       <c r="O3" s="61" t="s">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="P3" s="91" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="Q3" s="91" t="s">
         <v>133</v>
       </c>
       <c r="R3" s="61" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
-        <v>474</v>
+      <c r="A4" s="93" t="s">
+        <v>469</v>
       </c>
       <c r="B4" s="61" t="s">
         <v>71</v>
@@ -8641,10 +8619,10 @@
         <v>68</v>
       </c>
       <c r="E4" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="F4" s="95" t="s">
-        <v>467</v>
+        <v>411</v>
+      </c>
+      <c r="F4" s="94" t="s">
+        <v>466</v>
       </c>
       <c r="G4" s="61" t="s">
         <v>449</v>
@@ -8671,16 +8649,16 @@
         <v>452</v>
       </c>
       <c r="O4" s="61" t="s">
-        <v>473</v>
+        <v>495</v>
       </c>
       <c r="P4" s="91" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="Q4" s="91" t="s">
         <v>133</v>
       </c>
       <c r="R4" s="61" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -8695,279 +8673,259 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" style="50" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" style="50" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.5703125" style="50" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.5703125" style="50" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.28515625" style="50" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.140625" style="50" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" style="50" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.140625" style="50" collapsed="1"/>
-    <col min="9" max="9" width="18.42578125" style="50" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" style="50" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="14.42578125" style="50" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="9.140625" style="50" collapsed="1"/>
-    <col min="15" max="15" width="13.140625" style="50" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="9.140625" style="50" collapsed="1"/>
-    <col min="18" max="18" width="9.85546875" style="50" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="9.140625" style="50" collapsed="1"/>
-    <col min="20" max="20" width="36.5703125" style="50" customWidth="1" collapsed="1"/>
-    <col min="21" max="16384" width="9.140625" style="50" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="60" width="16.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="60" width="14.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="60" width="16.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="60" width="21.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="60" width="20.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="60" width="29.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="60" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" style="60" width="9.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="60" width="18.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="60" width="15.140625" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" style="60" width="14.42578125" collapsed="true"/>
+    <col min="13" max="14" style="60" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="60" width="13.140625" collapsed="true"/>
+    <col min="16" max="17" style="60" width="9.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="60" width="9.85546875" collapsed="true"/>
+    <col min="19" max="19" style="60" width="9.140625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="60" width="36.5703125" collapsed="true"/>
+    <col min="21" max="16384" style="60" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="88" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="88" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="L1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="M1" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="55" t="s">
+      <c r="N1" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="56" t="s">
+      <c r="O1" s="88" t="s">
         <v>414</v>
       </c>
-      <c r="P1" s="55" t="s">
+      <c r="P1" s="88" t="s">
         <v>131</v>
       </c>
-      <c r="Q1" s="55" t="s">
+      <c r="Q1" s="88" t="s">
         <v>132</v>
       </c>
-      <c r="R1" s="55" t="s">
+      <c r="R1" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="55"/>
-      <c r="T1" s="56" t="s">
+      <c r="S1" s="88"/>
+      <c r="T1" s="88" t="s">
         <v>272</v>
       </c>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-    </row>
-    <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="106" t="s">
         <v>425</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="60" t="s">
         <v>64</v>
       </c>
       <c r="E2" s="61" t="s">
         <v>411</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="105" t="s">
         <v>249</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="106" t="s">
         <v>197</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="60" t="s">
         <v>426</v>
       </c>
-      <c r="K2" s="66" t="s">
+      <c r="K2" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="L2" s="63" t="s">
+      <c r="L2" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="66" t="s">
+      <c r="M2" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="N2" s="66">
-        <v>20037</v>
-      </c>
-      <c r="O2" s="57" t="s">
-        <v>416</v>
-      </c>
-      <c r="P2" s="59" t="s">
+      <c r="N2" s="107" t="s">
+        <v>483</v>
+      </c>
+      <c r="O2" s="60" t="s">
+        <v>486</v>
+      </c>
+      <c r="P2" s="106" t="s">
         <v>196</v>
       </c>
-      <c r="Q2" s="59" t="s">
+      <c r="Q2" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="R2" s="57" t="s">
+      <c r="R2" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="S2" s="57"/>
       <c r="T2" s="60" t="s">
         <v>273</v>
       </c>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-    </row>
-    <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="106" t="s">
         <v>425</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="60" t="s">
         <v>58</v>
       </c>
       <c r="E3" s="61" t="s">
         <v>411</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="105" t="s">
         <v>249</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="106" t="s">
         <v>198</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="60" t="s">
         <v>427</v>
       </c>
-      <c r="K3" s="66" t="s">
+      <c r="K3" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="L3" s="63" t="s">
+      <c r="L3" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="66" t="s">
+      <c r="M3" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="N3" s="66">
-        <v>20037</v>
-      </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="59" t="s">
+      <c r="N3" s="107" t="s">
+        <v>484</v>
+      </c>
+      <c r="P3" s="106" t="s">
         <v>196</v>
       </c>
-      <c r="Q3" s="59" t="s">
+      <c r="Q3" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="R3" s="57" t="s">
+      <c r="R3" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-    </row>
-    <row r="4" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="106" t="s">
         <v>425</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="60" t="s">
         <v>68</v>
       </c>
       <c r="E4" s="61" t="s">
         <v>411</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="105" t="s">
         <v>249</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="106" t="s">
         <v>199</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="60" t="s">
         <v>428</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="L4" s="63" t="s">
+      <c r="L4" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="66" t="s">
+      <c r="M4" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="N4" s="66">
-        <v>20037</v>
-      </c>
-      <c r="O4" s="57"/>
-      <c r="P4" s="59" t="s">
+      <c r="N4" s="107" t="s">
+        <v>485</v>
+      </c>
+      <c r="P4" s="106" t="s">
         <v>196</v>
       </c>
-      <c r="Q4" s="59" t="s">
+      <c r="Q4" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="R4" s="57" t="s">
+      <c r="R4" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D8" s="52"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D8" s="106"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8984,28 +8942,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I17" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.28515625" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -9246,310 +9204,298 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.28515625" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="15.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30" style="5" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.42578125" style="5" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" style="5" collapsed="1"/>
-    <col min="13" max="13" width="13.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="92" width="23.140625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="5" width="15.28515625" collapsed="true"/>
+    <col min="4" max="6" customWidth="true" style="5" width="15.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="11.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="5" width="30.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="5" width="21.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="14.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="5" width="15.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="5" width="11.85546875" collapsed="true"/>
+    <col min="13" max="13" style="5" width="9.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="5" width="13.5703125" collapsed="true"/>
+    <col min="15" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="J1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="92" t="s">
+        <v>487</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="21"/>
+      <c r="O2" s="10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="92" t="s">
+        <v>489</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="I3" s="104" t="s">
+        <v>456</v>
+      </c>
+      <c r="J3" s="61" t="s">
+        <v>450</v>
+      </c>
+      <c r="K3" s="91" t="s">
+        <v>449</v>
+      </c>
+      <c r="L3" s="91" t="s">
+        <v>451</v>
+      </c>
+      <c r="M3" s="91" t="s">
+        <v>460</v>
+      </c>
+      <c r="N3" s="21"/>
+      <c r="O3" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="I4" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="M4" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="10" t="s">
+      <c r="N4" s="21"/>
+      <c r="O4" s="10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H5" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="I5" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="M5" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="10" t="s">
+      <c r="N5" s="21"/>
+      <c r="O5" s="10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="H6" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="I6" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="J6" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L6" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="M6" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="10" t="s">
+      <c r="N6" s="21"/>
+      <c r="O6" s="10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="M6" s="21"/>
-      <c r="N6" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I8" s="10"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J8" s="10"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H3:H6">
+  <conditionalFormatting sqref="I3:I6">
     <cfRule type="uniqueValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3:G6" r:id="rId2" display="usgbcarc@gmail.com"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3:H6" r:id="rId2" display="usgbcarc@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -9559,10 +9505,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -9641,44 +9587,44 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.140625" style="2" collapsed="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.140625" style="2" collapsed="1"/>
-    <col min="15" max="15" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="19" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="22.85546875" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="16" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="9" max="9" style="2" width="9.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="14" max="14" style="2" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="16" max="17" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="15.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -10132,7 +10078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP5"/>
   <sheetViews>
@@ -10140,19 +10086,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="15.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
@@ -10779,4 +10725,72 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ArcTest.xlsx
+++ b/ArcTest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Group10\git\KatalonStudio\ArcWithKatalonStudio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Group 10\git\KatalonStudio\ArcWithKatalonStudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1680,7 +1680,7 @@
     <t>2019</t>
   </si>
   <si>
-    <t>Building Portfolio 788258</t>
+    <t>Building Portfolio 123321</t>
   </si>
 </sst>
 </file>
@@ -1688,7 +1688,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
@@ -1977,7 +1977,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -5530,8 +5530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ13" sqref="AJ13"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ArcTest.xlsx
+++ b/ArcTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="5790" firstSheet="17" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="5790" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="USBuildingProject" sheetId="1" r:id="rId1"/>
@@ -2415,8 +2415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ10"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2430,7 +2430,7 @@
     <col min="7" max="7" width="22.42578125" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="15.5703125" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="9.140625" style="2" collapsed="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.85546875" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="13.140625" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="11.42578125" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="11.7109375" customWidth="1" collapsed="1"/>
@@ -7639,8 +7639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7662,7 +7662,10 @@
     <col min="16" max="16" width="15.140625" style="68" customWidth="1" collapsed="1"/>
     <col min="17" max="23" width="9.140625" style="68" collapsed="1"/>
     <col min="24" max="24" width="16.7109375" style="68" customWidth="1" collapsed="1"/>
-    <col min="25" max="16384" width="9.140625" style="68" collapsed="1"/>
+    <col min="25" max="28" width="9.140625" style="68" collapsed="1"/>
+    <col min="29" max="29" width="19.85546875" style="68" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="16" style="68" customWidth="1" collapsed="1"/>
+    <col min="31" max="16384" width="9.140625" style="68" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
@@ -8759,7 +8762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
